--- a/Web Scraping/Pie Charts Colombia/Historico hasta enero 26 2022/archivo_37.xlsx
+++ b/Web Scraping/Pie Charts Colombia/Historico hasta enero 26 2022/archivo_37.xlsx
@@ -195,64 +195,44 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Xenofobia </t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="B12">
-        <v>3242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Educación </t>
         </is>
       </c>
       <c r="B13">
-        <v>249</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Integración</t>
+          <t>Seguridad </t>
         </is>
       </c>
       <c r="B14">
-        <v>2158</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Educación </t>
+          <t>Salud </t>
         </is>
       </c>
       <c r="B15">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Seguridad </t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>4503</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Salud </t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="18"/>
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
 </worksheet>
 </file>